--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6847AFAD-FE16-4BC3-A539-65C8D74C093A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65534C5-FDDB-4C5D-B9DA-B1F753E0EA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAhorros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1010388828</t>
-  </si>
-  <si>
     <t>Cancelación Anticipada</t>
   </si>
   <si>
@@ -66,31 +63,13 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:21:36</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:07:40</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:47:11</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:49:23</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:41:03</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:43:58</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:47:52</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:51:29</t>
-  </si>
-  <si>
     <t>6 mar. 2023, 15:52:44</t>
+  </si>
+  <si>
+    <t>1010800931</t>
+  </si>
+  <si>
+    <t>26 abr. 2023, 10:45:08</t>
   </si>
 </sst>
 </file>
@@ -427,7 +406,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,13 +433,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -471,19 +450,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65534C5-FDDB-4C5D-B9DA-B1F753E0EA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68CE94-CA5E-4642-A619-45936C571CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -57,26 +57,28 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSCSUP1</t>
+  </si>
+  <si>
+    <t>1010791778</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:52:44</t>
-  </si>
-  <si>
-    <t>1010800931</t>
-  </si>
-  <si>
-    <t>26 abr. 2023, 10:45:08</t>
+    <t>3 may. 2023, 00:24:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,23 +405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,17 +435,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -456,13 +462,16 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68CE94-CA5E-4642-A619-45936C571CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52323F7F-FA26-450E-B3EC-9E79B778A6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -66,19 +66,23 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>1010791778</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>3 may. 2023, 00:24:20</t>
+    <t>25 may. 2023, 11:46:26</t>
+  </si>
+  <si>
+    <t>1010215761</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 11:48:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,18 +412,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -456,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -465,13 +469,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52323F7F-FA26-450E-B3EC-9E79B778A6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0014B955-45C8-4489-872C-189605E8DDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>razon</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -57,32 +54,22 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>usuarioAp</t>
   </si>
   <si>
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 11:46:26</t>
-  </si>
-  <si>
-    <t>1010215761</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 11:48:01</t>
+    <t>gmalca</t>
+  </si>
+  <si>
+    <t>1008750568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,18 +399,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F2" sqref="F2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -440,42 +427,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0014B955-45C8-4489-872C-189605E8DDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F15DAB6-2F15-44FF-ADD0-103FB86D4B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -36,9 +36,6 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>razon</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -64,12 +61,25 @@
   </si>
   <si>
     <t>1008750568</t>
+  </si>
+  <si>
+    <t>razoncierre</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:04:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,18 +409,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -424,36 +434,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F15DAB6-2F15-44FF-ADD0-103FB86D4B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32580D7-3DBD-46AB-8E0B-95B47ECFAAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -60,9 +60,6 @@
     <t>gmalca</t>
   </si>
   <si>
-    <t>1008750568</t>
-  </si>
-  <si>
     <t>razoncierre</t>
   </si>
   <si>
@@ -72,7 +69,13 @@
     <t/>
   </si>
   <si>
-    <t>26 jun. 2023, 18:04:05</t>
+    <t>30 jun. 2023, 14:42:47</t>
+  </si>
+  <si>
+    <t>1010826108</t>
+  </si>
+  <si>
+    <t>30 jun. 2023, 14:45:36</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -457,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -466,13 +469,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32580D7-3DBD-46AB-8E0B-95B47ECFAAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A9715D-3D10-4BEE-BFB9-1BEBD4469E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -63,19 +63,16 @@
     <t>razoncierre</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>30 jun. 2023, 14:42:47</t>
-  </si>
-  <si>
     <t>1010826108</t>
   </si>
   <si>
-    <t>30 jun. 2023, 14:45:36</t>
+    <t>AAACT231840NRHJDP</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 10:54:17</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -469,13 +466,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A9715D-3D10-4BEE-BFB9-1BEBD4469E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73022A6-4A6D-4463-8C24-2B3C395CF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -63,9 +63,6 @@
     <t>razoncierre</t>
   </si>
   <si>
-    <t>1010826108</t>
-  </si>
-  <si>
     <t>AAACT231840NRHJDP</t>
   </si>
   <si>
@@ -73,6 +70,15 @@
   </si>
   <si>
     <t>3 jul. 2023, 10:54:17</t>
+  </si>
+  <si>
+    <t>1010826124</t>
+  </si>
+  <si>
+    <t>AAACT23195WF05QJC</t>
+  </si>
+  <si>
+    <t>14 jul. 2023, 09:30:21</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -466,13 +472,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73022A6-4A6D-4463-8C24-2B3C395CF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCADE8-A78D-43B0-AD3B-2713E5C1AC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -54,31 +54,28 @@
     <t>usuarioAp</t>
   </si>
   <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
-    <t>gmalca</t>
-  </si>
-  <si>
     <t>razoncierre</t>
   </si>
   <si>
-    <t>AAACT231840NRHJDP</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>3 jul. 2023, 10:54:17</t>
-  </si>
-  <si>
-    <t>1010826124</t>
-  </si>
-  <si>
     <t>AAACT23195WF05QJC</t>
   </si>
   <si>
     <t>14 jul. 2023, 09:30:21</t>
+  </si>
+  <si>
+    <t>btorres</t>
+  </si>
+  <si>
+    <t>1010826248</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>AASIM232155ZCV76Q</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
@@ -457,28 +454,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCADE8-A78D-43B0-AD3B-2713E5C1AC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C9966-788A-4555-9429-955D57B843DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAhorros" sheetId="1" r:id="rId1"/>
@@ -60,22 +60,22 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>AAACT23195WF05QJC</t>
-  </si>
-  <si>
     <t>14 jul. 2023, 09:30:21</t>
   </si>
   <si>
     <t>btorres</t>
   </si>
   <si>
-    <t>1010826248</t>
-  </si>
-  <si>
     <t>ebenito</t>
   </si>
   <si>
     <t>AASIM232155ZCV76Q</t>
+  </si>
+  <si>
+    <t>1010824865</t>
+  </si>
+  <si>
+    <t>AASIM23216Q5X76XF</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,19 +454,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -475,7 +475,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C9966-788A-4555-9429-955D57B843DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3156881-93A5-40FC-9F62-8DB51C901891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1800" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAhorros" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -69,20 +69,22 @@
     <t>ebenito</t>
   </si>
   <si>
-    <t>AASIM232155ZCV76Q</t>
-  </si>
-  <si>
     <t>1010824865</t>
   </si>
   <si>
     <t>AASIM23216Q5X76XF</t>
+  </si>
+  <si>
+    <t>moneda</t>
+  </si>
+  <si>
+    <t>soles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,24 +411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,22 +440,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -460,21 +466,24 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/Excel/entregable1/CancelacionAhorros.xlsx
+++ b/src/Excel/entregable1/CancelacionAhorros.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3156881-93A5-40FC-9F62-8DB51C901891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780EB67-4E4F-4EF0-BC19-70D0287EA349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1800" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CancelacionAhorros" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>usuario</t>
   </si>
@@ -69,22 +69,59 @@
     <t>ebenito</t>
   </si>
   <si>
-    <t>1010824865</t>
-  </si>
-  <si>
     <t>AASIM23216Q5X76XF</t>
   </si>
   <si>
     <t>moneda</t>
   </si>
   <si>
-    <t>soles</t>
+    <t>1010827031</t>
+  </si>
+  <si>
+    <t>dolares</t>
+  </si>
+  <si>
+    <t>AASIM23216Q511KW2</t>
+  </si>
+  <si>
+    <t>AASIM23216HM26LG2</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4 ago. 2023, 14:16:26</t>
+  </si>
+  <si>
+    <t>AASIM2321640GFX2P</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 14:18:45</t>
+  </si>
+  <si>
+    <t>AASIM23216ZHL9LYS</t>
+  </si>
+  <si>
+    <t>AASIM23216RWCYTNT</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 14:26:33</t>
+  </si>
+  <si>
+    <t>AASIM23216B8CV5CB</t>
+  </si>
+  <si>
+    <t>4 ago. 2023, 14:38:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,19 +451,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -440,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -466,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -481,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
